--- a/Images/ImageURLs.xlsx
+++ b/Images/ImageURLs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Windows.Documents\My Documents\CIRE Lab\Caplan\Presentations\SciTech\Images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\depot.engr.oregonstate.edu\users\caplanda\Windows.Documents\My Documents\CIRE Lab\Caplan\Presentations\Spark-Kernels-SciTech-Presentation\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>http://www.itt.kit.edu/english/323.php</t>
   </si>
@@ -48,13 +48,19 @@
   </si>
   <si>
     <t>ChemiPLIF.gif</t>
+  </si>
+  <si>
+    <t>FlameoutCrash.jpg</t>
+  </si>
+  <si>
+    <t>http://www.aviation-accidents.net/garuda-indonesia-boeing-b737-300-pk-gwa-flight-ga421/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +72,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,14 +102,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,8 +435,19 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Images/ImageURLs.xlsx
+++ b/Images/ImageURLs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>http://www.itt.kit.edu/english/323.php</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>http://www.aviation-accidents.net/garuda-indonesia-boeing-b737-300-pk-gwa-flight-ga421/</t>
+  </si>
+  <si>
+    <t>GasAnalyzer.png</t>
+  </si>
+  <si>
+    <t>https://www.campbellsci.com/irgason</t>
+  </si>
+  <si>
+    <t>SparkKernel.jpg</t>
+  </si>
+  <si>
+    <t>http://www.suprasport.com/E3-Spark-Plugs_p_1520.html</t>
   </si>
 </sst>
 </file>
@@ -391,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,6 +455,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
